--- a/output/boxplot_dls_table.xlsx
+++ b/output/boxplot_dls_table.xlsx
@@ -675,7 +675,7 @@
         <v>2.537908496732026</v>
       </c>
       <c r="K5" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
@@ -863,7 +863,7 @@
         <v>2.894117647058823</v>
       </c>
       <c r="K9" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10">
@@ -910,7 +910,7 @@
         <v>4.230718954248366</v>
       </c>
       <c r="K10" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11">
@@ -1004,7 +1004,7 @@
         <v>3.680392156862745</v>
       </c>
       <c r="K12" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13">
@@ -1098,7 +1098,7 @@
         <v>2.347407407407407</v>
       </c>
       <c r="K14" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15">
@@ -1145,7 +1145,7 @@
         <v>2.305816993464052</v>
       </c>
       <c r="K15" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16">
@@ -1380,7 +1380,7 @@
         <v>1.045025</v>
       </c>
       <c r="K20" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21">
@@ -1474,7 +1474,7 @@
         <v>1.380344</v>
       </c>
       <c r="K22" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23">
@@ -1662,7 +1662,7 @@
         <v>1.182932</v>
       </c>
       <c r="K26" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27">
@@ -2034,7 +2034,7 @@
         <v>2.766</v>
       </c>
       <c r="K34" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35">
@@ -2128,7 +2128,7 @@
         <v>2.886666666666666</v>
       </c>
       <c r="K36" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37">
@@ -2269,7 +2269,7 @@
         <v>5.341365461847389</v>
       </c>
       <c r="K39" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40">
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_dls_table.xlsx
+++ b/output/boxplot_dls_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,22 +1104,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1136,32 +1136,32 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5291.85</v>
+        <v>1525</v>
       </c>
       <c r="I15" t="n">
         <v>2295</v>
       </c>
       <c r="J15" t="n">
-        <v>2.305816993464052</v>
+        <v>0.6644880174291939</v>
       </c>
       <c r="K15" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1183,37 +1183,37 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5434.78</v>
+        <v>5291.85</v>
       </c>
       <c r="I16" t="n">
         <v>2295</v>
       </c>
       <c r="J16" t="n">
-        <v>2.368095860566449</v>
+        <v>2.305816993464052</v>
       </c>
       <c r="K16" t="n">
-        <v>283</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1230,42 +1230,42 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8122.17</v>
+        <v>5434.78</v>
       </c>
       <c r="I17" t="n">
         <v>2295</v>
       </c>
       <c r="J17" t="n">
-        <v>3.539071895424837</v>
+        <v>2.368095860566449</v>
       </c>
       <c r="K17" t="n">
-        <v>132</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1273,20 +1273,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10672</v>
+        <v>8122.17</v>
       </c>
       <c r="I18" t="n">
-        <v>10000</v>
+        <v>2295</v>
       </c>
       <c r="J18" t="n">
-        <v>1.0672</v>
+        <v>3.539071895424837</v>
       </c>
       <c r="K18" t="n">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>12081.5</v>
+        <v>10672</v>
       </c>
       <c r="I19" t="n">
         <v>10000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.20815</v>
+        <v>1.0672</v>
       </c>
       <c r="K19" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1371,37 +1371,37 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10450.25</v>
+        <v>12081.5</v>
       </c>
       <c r="I20" t="n">
         <v>10000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.045025</v>
+        <v>1.20815</v>
       </c>
       <c r="K20" t="n">
-        <v>387</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1418,37 +1418,37 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>14500</v>
+        <v>10450.25</v>
       </c>
       <c r="I21" t="n">
         <v>10000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.45</v>
+        <v>1.045025</v>
       </c>
       <c r="K21" t="n">
-        <v>25</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13803.44</v>
+        <v>12000</v>
       </c>
       <c r="I22" t="n">
         <v>10000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.380344</v>
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1512,37 +1512,37 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>13550</v>
+        <v>14500</v>
       </c>
       <c r="I23" t="n">
         <v>10000</v>
       </c>
       <c r="J23" t="n">
-        <v>1.355</v>
+        <v>1.45</v>
       </c>
       <c r="K23" t="n">
-        <v>281</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1559,37 +1559,37 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>13337.6</v>
+        <v>13803.44</v>
       </c>
       <c r="I24" t="n">
         <v>10000</v>
       </c>
       <c r="J24" t="n">
-        <v>1.33376</v>
+        <v>1.380344</v>
       </c>
       <c r="K24" t="n">
-        <v>91</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1606,32 +1606,32 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>16019.03</v>
+        <v>13550</v>
       </c>
       <c r="I25" t="n">
         <v>10000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.601903</v>
+        <v>1.355</v>
       </c>
       <c r="K25" t="n">
-        <v>92</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1653,42 +1653,42 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>11829.32</v>
+        <v>13337.6</v>
       </c>
       <c r="I26" t="n">
         <v>10000</v>
       </c>
       <c r="J26" t="n">
-        <v>1.182932</v>
+        <v>1.33376</v>
       </c>
       <c r="K26" t="n">
-        <v>366</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1696,46 +1696,46 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>16019.03</v>
       </c>
       <c r="I27" t="n">
-        <v>5.4</v>
+        <v>10000</v>
       </c>
       <c r="J27" t="n">
-        <v>2.222222222222222</v>
+        <v>1.601903</v>
       </c>
       <c r="K27" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1743,26 +1743,26 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>15.14</v>
+        <v>11829.32</v>
       </c>
       <c r="I28" t="n">
-        <v>5.4</v>
+        <v>10000</v>
       </c>
       <c r="J28" t="n">
-        <v>2.803703703703704</v>
+        <v>1.182932</v>
       </c>
       <c r="K28" t="n">
-        <v>37</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1790,36 +1790,36 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>16.48</v>
+        <v>12</v>
       </c>
       <c r="I29" t="n">
         <v>5.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.051851851851852</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="K29" t="n">
-        <v>272</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1841,32 +1841,32 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I30" t="n">
-        <v>15</v>
+        <v>5.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>2.962962962962963</v>
       </c>
       <c r="K30" t="n">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1884,42 +1884,46 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>m^2/person</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>30</v>
+        <v>15.14</v>
       </c>
       <c r="I31" t="n">
-        <v>15</v>
+        <v>5.4</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>2.803703703703704</v>
       </c>
       <c r="K31" t="n">
-        <v>196</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>Sufficiency</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1927,26 +1931,26 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>32</v>
+        <v>16.48</v>
       </c>
       <c r="I32" t="n">
-        <v>15</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.133333333333333</v>
+        <v>3.051851851851852</v>
       </c>
       <c r="K32" t="n">
-        <v>83</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1956,7 +1960,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1978,32 +1982,32 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>39.47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="n">
         <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>2.631333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>35</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2021,26 +2025,26 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m^2/person</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>41.49</v>
+        <v>30</v>
       </c>
       <c r="I34" t="n">
         <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>2.766</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>552</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2050,14 +2054,10 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
+          <t>based on LED</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>living space per capita</t>
@@ -2072,37 +2072,37 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>41.17</v>
+        <v>32</v>
       </c>
       <c r="I35" t="n">
         <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>2.744666666666667</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="K35" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Living space</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2119,22 +2119,22 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>43.3</v>
+        <v>43.43</v>
       </c>
       <c r="I36" t="n">
         <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>2.886666666666666</v>
+        <v>2.895333333333333</v>
       </c>
       <c r="K36" t="n">
-        <v>730</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2162,46 +2162,46 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>92.5</v>
+        <v>39.47</v>
       </c>
       <c r="I37" t="n">
-        <v>62.25</v>
+        <v>15</v>
       </c>
       <c r="J37" t="n">
-        <v>1.485943775100402</v>
+        <v>2.631333333333333</v>
       </c>
       <c r="K37" t="n">
-        <v>189</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2209,46 +2209,46 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>235</v>
+        <v>41.49</v>
       </c>
       <c r="I38" t="n">
-        <v>62.25</v>
+        <v>15</v>
       </c>
       <c r="J38" t="n">
-        <v>3.775100401606426</v>
+        <v>2.766</v>
       </c>
       <c r="K38" t="n">
-        <v>43</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2256,46 +2256,46 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>332.5</v>
+        <v>41.17</v>
       </c>
       <c r="I39" t="n">
-        <v>62.25</v>
+        <v>15</v>
       </c>
       <c r="J39" t="n">
-        <v>5.341365461847389</v>
+        <v>2.744666666666667</v>
       </c>
       <c r="K39" t="n">
-        <v>563</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Living space</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2303,20 +2303,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>g/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>42.86</v>
+        <v>43.3</v>
       </c>
       <c r="I40" t="n">
-        <v>62.25</v>
+        <v>15</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6885140562248996</v>
+        <v>2.886666666666666</v>
       </c>
       <c r="K40" t="n">
-        <v>127</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41">
@@ -2350,67 +2350,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>g/cap/day</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>107.14</v>
+        <v>42.86</v>
       </c>
       <c r="I41" t="n">
         <v>62.25</v>
       </c>
       <c r="J41" t="n">
-        <v>1.721124497991968</v>
+        <v>0.6885140562248996</v>
       </c>
       <c r="K41" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>van de Ven et al. (2018)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>EU27</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Enthusiastic profile</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>kcal/cap/day</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>62.25</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>355</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_dls_table.xlsx
+++ b/output/boxplot_dls_table.xlsx
@@ -2350,17 +2350,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>g/cap/day</t>
+          <t>kg/cap/day</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>42.86</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
         <v>62.25</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6885140562248996</v>
+        <v>0.000642570281124498</v>
       </c>
       <c r="K41" t="n">
         <v>127</v>

--- a/output/boxplot_dls_table.xlsx
+++ b/output/boxplot_dls_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -534,7 +534,7 @@
         <v>2.700653594771242</v>
       </c>
       <c r="K2" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3">
@@ -581,23 +581,23 @@
         <v>2.588235294117647</v>
       </c>
       <c r="K3" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -619,37 +619,37 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>36.79</v>
+        <v>38.83</v>
       </c>
       <c r="I4" t="n">
         <v>15.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.404575163398693</v>
+        <v>2.537908496732026</v>
       </c>
       <c r="K4" t="n">
-        <v>302</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>general / energy</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -666,32 +666,32 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>38.83</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
         <v>15.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.537908496732026</v>
+        <v>3.202614379084967</v>
       </c>
       <c r="K5" t="n">
-        <v>384</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -713,37 +713,37 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I6" t="n">
         <v>15.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.202614379084967</v>
+        <v>3.856209150326797</v>
       </c>
       <c r="K6" t="n">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -760,32 +760,32 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>59</v>
+        <v>48.15</v>
       </c>
       <c r="I7" t="n">
         <v>15.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.856209150326797</v>
+        <v>3.147058823529412</v>
       </c>
       <c r="K7" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -807,37 +807,37 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>48.15</v>
+        <v>44.28</v>
       </c>
       <c r="I8" t="n">
         <v>15.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.147058823529412</v>
+        <v>2.894117647058823</v>
       </c>
       <c r="K8" t="n">
-        <v>41</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -854,37 +854,37 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>44.28</v>
+        <v>68.39</v>
       </c>
       <c r="I9" t="n">
         <v>15.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.894117647058823</v>
+        <v>4.469934640522876</v>
       </c>
       <c r="K9" t="n">
-        <v>547</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nachfragereduktion</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -901,42 +901,42 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>64.73</v>
+        <v>56.31</v>
       </c>
       <c r="I10" t="n">
         <v>15.3</v>
       </c>
       <c r="J10" t="n">
-        <v>4.230718954248366</v>
+        <v>3.680392156862745</v>
       </c>
       <c r="K10" t="n">
-        <v>415</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -944,46 +944,46 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>68.39</v>
+        <v>2533</v>
       </c>
       <c r="I11" t="n">
-        <v>15.3</v>
+        <v>2295</v>
       </c>
       <c r="J11" t="n">
-        <v>4.469934640522876</v>
+        <v>1.103703703703704</v>
       </c>
       <c r="K11" t="n">
-        <v>89</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Energy demand</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -991,36 +991,36 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>56.31</v>
+        <v>5387.3</v>
       </c>
       <c r="I12" t="n">
-        <v>15.3</v>
+        <v>2295</v>
       </c>
       <c r="J12" t="n">
-        <v>3.680392156862745</v>
+        <v>2.347407407407407</v>
       </c>
       <c r="K12" t="n">
-        <v>645</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,37 +1042,37 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2533</v>
+        <v>1525</v>
       </c>
       <c r="I13" t="n">
         <v>2295</v>
       </c>
       <c r="J13" t="n">
-        <v>1.103703703703704</v>
+        <v>0.6644880174291939</v>
       </c>
       <c r="K13" t="n">
-        <v>177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1089,37 +1089,37 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5387.3</v>
+        <v>5291.85</v>
       </c>
       <c r="I14" t="n">
         <v>2295</v>
       </c>
       <c r="J14" t="n">
-        <v>2.347407407407407</v>
+        <v>2.305816993464052</v>
       </c>
       <c r="K14" t="n">
-        <v>393</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1136,37 +1136,37 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1525</v>
+        <v>5434.78</v>
       </c>
       <c r="I15" t="n">
         <v>2295</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6644880174291939</v>
+        <v>2.368095860566449</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5291.85</v>
+        <v>8122.17</v>
       </c>
       <c r="I16" t="n">
         <v>2295</v>
       </c>
       <c r="J16" t="n">
-        <v>2.305816993464052</v>
+        <v>3.539071895424837</v>
       </c>
       <c r="K16" t="n">
-        <v>561</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1226,46 +1226,46 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5434.78</v>
+        <v>10672</v>
       </c>
       <c r="I17" t="n">
-        <v>2295</v>
+        <v>10000</v>
       </c>
       <c r="J17" t="n">
-        <v>2.368095860566449</v>
+        <v>1.0672</v>
       </c>
       <c r="K17" t="n">
-        <v>283</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1273,41 +1273,41 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8122.17</v>
+        <v>12081.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2295</v>
+        <v>10000</v>
       </c>
       <c r="J18" t="n">
-        <v>3.539071895424837</v>
+        <v>1.20815</v>
       </c>
       <c r="K18" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1324,37 +1324,37 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10672</v>
+        <v>10450.25</v>
       </c>
       <c r="I19" t="n">
         <v>10000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.0672</v>
+        <v>1.045025</v>
       </c>
       <c r="K19" t="n">
-        <v>148</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1371,37 +1371,37 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>12081.5</v>
+        <v>12000</v>
       </c>
       <c r="I20" t="n">
         <v>10000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.20815</v>
+        <v>1.2</v>
       </c>
       <c r="K20" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1418,32 +1418,32 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10450.25</v>
+        <v>14500</v>
       </c>
       <c r="I21" t="n">
         <v>10000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.045025</v>
+        <v>1.45</v>
       </c>
       <c r="K21" t="n">
-        <v>387</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1465,32 +1465,32 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>12000</v>
+        <v>13803.44</v>
       </c>
       <c r="I22" t="n">
         <v>10000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.2</v>
+        <v>1.380344</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1512,37 +1512,37 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>14500</v>
+        <v>12990.49</v>
       </c>
       <c r="I23" t="n">
         <v>10000</v>
       </c>
       <c r="J23" t="n">
-        <v>1.45</v>
+        <v>1.299049</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1559,37 +1559,37 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>13803.44</v>
+        <v>13550</v>
       </c>
       <c r="I24" t="n">
         <v>10000</v>
       </c>
       <c r="J24" t="n">
-        <v>1.380344</v>
+        <v>1.355</v>
       </c>
       <c r="K24" t="n">
-        <v>554</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>13550</v>
+        <v>13337.6</v>
       </c>
       <c r="I25" t="n">
         <v>10000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.355</v>
+        <v>1.33376</v>
       </c>
       <c r="K25" t="n">
-        <v>281</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>13337.6</v>
+        <v>16019.03</v>
       </c>
       <c r="I26" t="n">
         <v>10000</v>
       </c>
       <c r="J26" t="n">
-        <v>1.33376</v>
+        <v>1.601903</v>
       </c>
       <c r="K26" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1700,42 +1700,42 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>16019.03</v>
+        <v>11829.32</v>
       </c>
       <c r="I27" t="n">
         <v>10000</v>
       </c>
       <c r="J27" t="n">
-        <v>1.601903</v>
+        <v>1.182932</v>
       </c>
       <c r="K27" t="n">
-        <v>92</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1743,36 +1743,36 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11829.32</v>
+        <v>12</v>
       </c>
       <c r="I28" t="n">
-        <v>10000</v>
+        <v>5.4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.182932</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="K28" t="n">
-        <v>366</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1794,32 +1794,32 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" t="n">
         <v>5.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.222222222222222</v>
+        <v>2.962962962962963</v>
       </c>
       <c r="K29" t="n">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>16</v>
+        <v>15.14</v>
       </c>
       <c r="I30" t="n">
         <v>5.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.962962962962963</v>
+        <v>2.803703703703704</v>
       </c>
       <c r="K30" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1884,26 +1884,26 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>15.14</v>
+        <v>16.48</v>
       </c>
       <c r="I31" t="n">
         <v>5.4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.803703703703704</v>
+        <v>3.051851851851852</v>
       </c>
       <c r="K31" t="n">
-        <v>37</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1931,36 +1931,36 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>16.48</v>
+        <v>48</v>
       </c>
       <c r="I32" t="n">
-        <v>5.4</v>
+        <v>15</v>
       </c>
       <c r="J32" t="n">
-        <v>3.051851851851852</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>272</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1978,26 +1978,26 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I33" t="n">
         <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2025,39 +2025,43 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>m^2/person</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I34" t="n">
         <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="K34" t="n">
-        <v>196</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>ILED</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>living space per capita</t>
@@ -2072,32 +2076,32 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>32</v>
+        <v>43.43</v>
       </c>
       <c r="I35" t="n">
         <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>2.133333333333333</v>
+        <v>2.895333333333333</v>
       </c>
       <c r="K35" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2119,32 +2123,32 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>43.43</v>
+        <v>39.47</v>
       </c>
       <c r="I36" t="n">
         <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>2.895333333333333</v>
+        <v>2.631333333333333</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2162,36 +2166,36 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>39.47</v>
+        <v>41.49</v>
       </c>
       <c r="I37" t="n">
         <v>15</v>
       </c>
       <c r="J37" t="n">
-        <v>2.631333333333333</v>
+        <v>2.766</v>
       </c>
       <c r="K37" t="n">
-        <v>35</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2209,36 +2213,36 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>41.49</v>
+        <v>41.17</v>
       </c>
       <c r="I38" t="n">
         <v>15</v>
       </c>
       <c r="J38" t="n">
-        <v>2.766</v>
+        <v>2.744666666666667</v>
       </c>
       <c r="K38" t="n">
-        <v>552</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2260,42 +2264,42 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>41.17</v>
+        <v>43.3</v>
       </c>
       <c r="I39" t="n">
         <v>15</v>
       </c>
       <c r="J39" t="n">
-        <v>2.744666666666667</v>
+        <v>2.886666666666666</v>
       </c>
       <c r="K39" t="n">
-        <v>114</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Living space</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2303,41 +2307,41 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>43.3</v>
+        <v>92.5</v>
       </c>
       <c r="I40" t="n">
-        <v>15</v>
+        <v>62.25</v>
       </c>
       <c r="J40" t="n">
-        <v>2.886666666666666</v>
+        <v>1.485943775100402</v>
       </c>
       <c r="K40" t="n">
-        <v>730</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2350,20 +2354,161 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>kg/cap/day</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>235</v>
       </c>
       <c r="I41" t="n">
         <v>62.25</v>
       </c>
       <c r="J41" t="n">
-        <v>0.000642570281124498</v>
+        <v>3.775100401606426</v>
       </c>
       <c r="K41" t="n">
-        <v>127</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.341365461847389</v>
+      </c>
+      <c r="K42" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UBA (2020)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>107.14</v>
+      </c>
+      <c r="I43" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.721124497991968</v>
+      </c>
+      <c r="K43" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>van de Ven et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Enthusiastic profile</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>kcal/cap/day</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_dls_table.xlsx
+++ b/output/boxplot_dls_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +534,7 @@
         <v>2.700653594771242</v>
       </c>
       <c r="K2" t="n">
-        <v>181</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -581,23 +581,23 @@
         <v>2.588235294117647</v>
       </c>
       <c r="K3" t="n">
-        <v>199</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -619,32 +619,32 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>38.83</v>
+        <v>65.16</v>
       </c>
       <c r="I4" t="n">
         <v>15.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.537908496732026</v>
+        <v>4.258823529411765</v>
       </c>
       <c r="K4" t="n">
-        <v>349</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -666,32 +666,32 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>49</v>
+        <v>36.78</v>
       </c>
       <c r="I5" t="n">
         <v>15.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.202614379084967</v>
+        <v>2.403921568627451</v>
       </c>
       <c r="K5" t="n">
-        <v>192</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -713,32 +713,32 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>59</v>
+        <v>38.83</v>
       </c>
       <c r="I6" t="n">
         <v>15.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.856209150326797</v>
+        <v>2.537908496732026</v>
       </c>
       <c r="K6" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -760,32 +760,32 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>48.15</v>
+        <v>49</v>
       </c>
       <c r="I7" t="n">
         <v>15.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.147058823529412</v>
+        <v>3.202614379084967</v>
       </c>
       <c r="K7" t="n">
-        <v>39</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -807,32 +807,32 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>44.28</v>
+        <v>59</v>
       </c>
       <c r="I8" t="n">
         <v>15.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.894117647058823</v>
+        <v>3.856209150326797</v>
       </c>
       <c r="K8" t="n">
-        <v>484</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,32 +854,32 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>68.39</v>
+        <v>48.15</v>
       </c>
       <c r="I9" t="n">
         <v>15.3</v>
       </c>
       <c r="J9" t="n">
-        <v>4.469934640522876</v>
+        <v>3.147058823529412</v>
       </c>
       <c r="K9" t="n">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -901,42 +901,42 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>56.31</v>
+        <v>44.28</v>
       </c>
       <c r="I10" t="n">
         <v>15.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.680392156862745</v>
+        <v>2.894117647058823</v>
       </c>
       <c r="K10" t="n">
-        <v>620</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -944,36 +944,36 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2533</v>
+        <v>56.31</v>
       </c>
       <c r="I11" t="n">
-        <v>2295</v>
+        <v>15.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.103703703703704</v>
+        <v>3.680392156862745</v>
       </c>
       <c r="K11" t="n">
-        <v>175</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -995,32 +995,32 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5387.3</v>
+        <v>2533</v>
       </c>
       <c r="I12" t="n">
         <v>2295</v>
       </c>
       <c r="J12" t="n">
-        <v>2.347407407407407</v>
+        <v>1.103703703703704</v>
       </c>
       <c r="K12" t="n">
-        <v>358</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,32 +1042,32 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1525</v>
+        <v>3809.48</v>
       </c>
       <c r="I13" t="n">
         <v>2295</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6644880174291939</v>
+        <v>1.659904139433551</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1089,37 +1089,37 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5291.85</v>
+        <v>5411.16</v>
       </c>
       <c r="I14" t="n">
         <v>2295</v>
       </c>
       <c r="J14" t="n">
-        <v>2.305816993464052</v>
+        <v>2.357803921568627</v>
       </c>
       <c r="K14" t="n">
-        <v>502</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1136,32 +1136,32 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5434.78</v>
+        <v>5387.3</v>
       </c>
       <c r="I15" t="n">
         <v>2295</v>
       </c>
       <c r="J15" t="n">
-        <v>2.368095860566449</v>
+        <v>2.347407407407407</v>
       </c>
       <c r="K15" t="n">
-        <v>293</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1183,42 +1183,42 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8122.17</v>
+        <v>1525</v>
       </c>
       <c r="I16" t="n">
         <v>2295</v>
       </c>
       <c r="J16" t="n">
-        <v>3.539071895424837</v>
+        <v>0.6644880174291939</v>
       </c>
       <c r="K16" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1226,26 +1226,26 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10672</v>
+        <v>5291.85</v>
       </c>
       <c r="I17" t="n">
-        <v>10000</v>
+        <v>2295</v>
       </c>
       <c r="J17" t="n">
-        <v>1.0672</v>
+        <v>2.305816993464052</v>
       </c>
       <c r="K17" t="n">
-        <v>146</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1273,46 +1273,46 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12081.5</v>
+        <v>5434.78</v>
       </c>
       <c r="I18" t="n">
-        <v>10000</v>
+        <v>2295</v>
       </c>
       <c r="J18" t="n">
-        <v>1.20815</v>
+        <v>2.368095860566449</v>
       </c>
       <c r="K18" t="n">
-        <v>147</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1320,36 +1320,36 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10450.25</v>
+        <v>8122.17</v>
       </c>
       <c r="I19" t="n">
-        <v>10000</v>
+        <v>2295</v>
       </c>
       <c r="J19" t="n">
-        <v>1.045025</v>
+        <v>3.539071895424837</v>
       </c>
       <c r="K19" t="n">
-        <v>352</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1371,32 +1371,32 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>12000</v>
+        <v>12081.5</v>
       </c>
       <c r="I20" t="n">
         <v>10000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.2</v>
+        <v>1.20815</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1418,22 +1418,22 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>14500</v>
+        <v>10450.25</v>
       </c>
       <c r="I21" t="n">
         <v>10000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.45</v>
+        <v>1.045025</v>
       </c>
       <c r="K21" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1465,32 +1465,32 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13803.44</v>
+        <v>13052.5</v>
       </c>
       <c r="I22" t="n">
         <v>10000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.380344</v>
+        <v>1.30525</v>
       </c>
       <c r="K22" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1512,32 +1512,32 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12990.49</v>
+        <v>12670.32</v>
       </c>
       <c r="I23" t="n">
         <v>10000</v>
       </c>
       <c r="J23" t="n">
-        <v>1.299049</v>
+        <v>1.267032</v>
       </c>
       <c r="K23" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1559,32 +1559,32 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>13550</v>
+        <v>16019.03</v>
       </c>
       <c r="I24" t="n">
         <v>10000</v>
       </c>
       <c r="J24" t="n">
-        <v>1.355</v>
+        <v>1.601903</v>
       </c>
       <c r="K24" t="n">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1606,32 +1606,32 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>13337.6</v>
+        <v>14500</v>
       </c>
       <c r="I25" t="n">
         <v>10000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.33376</v>
+        <v>1.45</v>
       </c>
       <c r="K25" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1653,42 +1653,42 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>16019.03</v>
+        <v>13803.44</v>
       </c>
       <c r="I26" t="n">
         <v>10000</v>
       </c>
       <c r="J26" t="n">
-        <v>1.601903</v>
+        <v>1.380344</v>
       </c>
       <c r="K26" t="n">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1696,36 +1696,36 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>11829.32</v>
+        <v>12</v>
       </c>
       <c r="I27" t="n">
-        <v>10000</v>
+        <v>5.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.182932</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="K27" t="n">
-        <v>331</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1743,36 +1743,36 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>16.84</v>
       </c>
       <c r="I28" t="n">
         <v>5.4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.222222222222222</v>
+        <v>3.118518518518518</v>
       </c>
       <c r="K28" t="n">
-        <v>158</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1790,36 +1790,36 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>16</v>
+        <v>14.12</v>
       </c>
       <c r="I29" t="n">
         <v>5.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.962962962962963</v>
+        <v>2.614814814814815</v>
       </c>
       <c r="K29" t="n">
-        <v>22</v>
+        <v>856</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>15.14</v>
+        <v>16</v>
       </c>
       <c r="I30" t="n">
         <v>5.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.803703703703704</v>
+        <v>2.962962962962963</v>
       </c>
       <c r="K30" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1884,26 +1884,26 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>16.48</v>
+        <v>15.14</v>
       </c>
       <c r="I31" t="n">
         <v>5.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.051851851851852</v>
+        <v>2.803703703703704</v>
       </c>
       <c r="K31" t="n">
-        <v>280</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1931,36 +1931,36 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>48</v>
+        <v>13.58</v>
       </c>
       <c r="I32" t="n">
-        <v>15</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>2.514814814814815</v>
       </c>
       <c r="K32" t="n">
-        <v>176</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1982,32 +1982,32 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I33" t="n">
         <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2029,32 +2029,32 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>32</v>
+        <v>26.38</v>
       </c>
       <c r="I34" t="n">
         <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>2.133333333333333</v>
+        <v>1.758666666666667</v>
       </c>
       <c r="K34" t="n">
-        <v>79</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2072,36 +2072,36 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>43.43</v>
+        <v>36.18</v>
       </c>
       <c r="I35" t="n">
         <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>2.895333333333333</v>
+        <v>2.412</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>855</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2119,36 +2119,36 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>39.47</v>
+        <v>30</v>
       </c>
       <c r="I36" t="n">
         <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>2.631333333333333</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>33</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2166,36 +2166,36 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>41.49</v>
+        <v>32</v>
       </c>
       <c r="I37" t="n">
         <v>15</v>
       </c>
       <c r="J37" t="n">
-        <v>2.766</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="K37" t="n">
-        <v>489</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2217,32 +2217,32 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>41.17</v>
+        <v>43.43</v>
       </c>
       <c r="I38" t="n">
         <v>15</v>
       </c>
       <c r="J38" t="n">
-        <v>2.744666666666667</v>
+        <v>2.895333333333333</v>
       </c>
       <c r="K38" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2264,42 +2264,42 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>43.3</v>
+        <v>39.47</v>
       </c>
       <c r="I39" t="n">
         <v>15</v>
       </c>
       <c r="J39" t="n">
-        <v>2.886666666666666</v>
+        <v>2.631333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>621</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2307,46 +2307,46 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>92.5</v>
+        <v>41.49</v>
       </c>
       <c r="I40" t="n">
-        <v>62.25</v>
+        <v>15</v>
       </c>
       <c r="J40" t="n">
-        <v>1.485943775100402</v>
+        <v>2.766</v>
       </c>
       <c r="K40" t="n">
-        <v>187</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2354,46 +2354,46 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>235</v>
+        <v>41.17</v>
       </c>
       <c r="I41" t="n">
-        <v>62.25</v>
+        <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>3.775100401606426</v>
+        <v>2.744666666666667</v>
       </c>
       <c r="K41" t="n">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2401,36 +2401,36 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>332.5</v>
+        <v>43.3</v>
       </c>
       <c r="I42" t="n">
-        <v>62.25</v>
+        <v>15</v>
       </c>
       <c r="J42" t="n">
-        <v>5.341365461847389</v>
+        <v>2.886666666666666</v>
       </c>
       <c r="K42" t="n">
-        <v>504</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2452,22 +2452,22 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>107.14</v>
+        <v>61.01</v>
       </c>
       <c r="I43" t="n">
         <v>62.25</v>
       </c>
       <c r="J43" t="n">
-        <v>1.721124497991968</v>
+        <v>0.9800803212851406</v>
       </c>
       <c r="K43" t="n">
-        <v>124</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2495,20 +2495,255 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>260.25</v>
       </c>
       <c r="I44" t="n">
         <v>62.25</v>
       </c>
       <c r="J44" t="n">
+        <v>4.180722891566265</v>
+      </c>
+      <c r="K44" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Costa et al. (2021) / EUCalc</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>EU28+CH</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>84.09</v>
+      </c>
+      <c r="I45" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.350843373493976</v>
+      </c>
+      <c r="K45" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>négaWatt (2022)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>kcal/cap/day</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>155.01</v>
+      </c>
+      <c r="I46" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.490120481927711</v>
+      </c>
+      <c r="K46" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>211.34</v>
+      </c>
+      <c r="I47" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.395020080321285</v>
+      </c>
+      <c r="K47" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>64.59</v>
+      </c>
+      <c r="I48" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.037590361445783</v>
+      </c>
+      <c r="K48" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>van de Ven et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Enthusiastic profile</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>kcal/cap/day</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="K44" t="n">
-        <v>320</v>
+      <c r="I49" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_dls_table.xlsx
+++ b/output/boxplot_dls_table.xlsx
@@ -628,7 +628,7 @@
         <v>4.258823529411765</v>
       </c>
       <c r="K4" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>2.403921568627451</v>
       </c>
       <c r="K5" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
         <v>2.537908496732026</v>
       </c>
       <c r="K6" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7">
@@ -910,7 +910,7 @@
         <v>2.894117647058823</v>
       </c>
       <c r="K10" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11">
@@ -957,7 +957,7 @@
         <v>3.680392156862745</v>
       </c>
       <c r="K11" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12">
@@ -1051,7 +1051,7 @@
         <v>1.659904139433551</v>
       </c>
       <c r="K13" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14">
@@ -1098,7 +1098,7 @@
         <v>2.357803921568627</v>
       </c>
       <c r="K14" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15">
@@ -1145,7 +1145,7 @@
         <v>2.347407407407407</v>
       </c>
       <c r="K15" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16">
@@ -1239,7 +1239,7 @@
         <v>2.305816993464052</v>
       </c>
       <c r="K17" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18">
@@ -1756,7 +1756,7 @@
         <v>3.118518518518518</v>
       </c>
       <c r="K28" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29">
@@ -1803,7 +1803,7 @@
         <v>2.614814814814815</v>
       </c>
       <c r="K29" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30">
@@ -2038,7 +2038,7 @@
         <v>1.758666666666667</v>
       </c>
       <c r="K34" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35">
@@ -2085,7 +2085,7 @@
         <v>2.412</v>
       </c>
       <c r="K35" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="36">
@@ -2320,7 +2320,7 @@
         <v>2.766</v>
       </c>
       <c r="K40" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41">
@@ -2414,7 +2414,7 @@
         <v>2.886666666666666</v>
       </c>
       <c r="K42" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="43">
@@ -2508,7 +2508,7 @@
         <v>4.180722891566265</v>
       </c>
       <c r="K44" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="45">
@@ -2555,7 +2555,7 @@
         <v>1.350843373493976</v>
       </c>
       <c r="K45" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="46">
@@ -2649,7 +2649,7 @@
         <v>3.395020080321285</v>
       </c>
       <c r="K47" t="n">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48">
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_dls_table.xlsx
+++ b/output/boxplot_dls_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,17 +916,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Europe+UA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,42 +948,42 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>56.31</v>
+        <v>54.07</v>
       </c>
       <c r="I11" t="n">
         <v>15.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.680392156862745</v>
+        <v>3.533986928104575</v>
       </c>
       <c r="K11" t="n">
-        <v>673</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -991,36 +991,36 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2533</v>
+        <v>56.31</v>
       </c>
       <c r="I12" t="n">
-        <v>2295</v>
+        <v>15.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.103703703703704</v>
+        <v>3.680392156862745</v>
       </c>
       <c r="K12" t="n">
-        <v>212</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,32 +1042,32 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3809.48</v>
+        <v>2533</v>
       </c>
       <c r="I13" t="n">
         <v>2295</v>
       </c>
       <c r="J13" t="n">
-        <v>1.659904139433551</v>
+        <v>1.103703703703704</v>
       </c>
       <c r="K13" t="n">
-        <v>783</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1089,32 +1089,32 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5411.16</v>
+        <v>3809.48</v>
       </c>
       <c r="I14" t="n">
         <v>2295</v>
       </c>
       <c r="J14" t="n">
-        <v>2.357803921568627</v>
+        <v>1.659904139433551</v>
       </c>
       <c r="K14" t="n">
-        <v>861</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1136,32 +1136,32 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5387.3</v>
+        <v>5411.16</v>
       </c>
       <c r="I15" t="n">
         <v>2295</v>
       </c>
       <c r="J15" t="n">
-        <v>2.347407407407407</v>
+        <v>2.357803921568627</v>
       </c>
       <c r="K15" t="n">
-        <v>408</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1183,32 +1183,32 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1525</v>
+        <v>5387.3</v>
       </c>
       <c r="I16" t="n">
         <v>2295</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6644880174291939</v>
+        <v>2.347407407407407</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1230,37 +1230,37 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5291.85</v>
+        <v>1525</v>
       </c>
       <c r="I17" t="n">
         <v>2295</v>
       </c>
       <c r="J17" t="n">
-        <v>2.305816993464052</v>
+        <v>0.6644880174291939</v>
       </c>
       <c r="K17" t="n">
-        <v>553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1277,37 +1277,37 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5434.78</v>
+        <v>5291.85</v>
       </c>
       <c r="I18" t="n">
         <v>2295</v>
       </c>
       <c r="J18" t="n">
-        <v>2.368095860566449</v>
+        <v>2.305816993464052</v>
       </c>
       <c r="K18" t="n">
-        <v>343</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1324,42 +1324,42 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8122.17</v>
+        <v>5434.78</v>
       </c>
       <c r="I19" t="n">
         <v>2295</v>
       </c>
       <c r="J19" t="n">
-        <v>3.539071895424837</v>
+        <v>2.368095860566449</v>
       </c>
       <c r="K19" t="n">
-        <v>158</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1367,36 +1367,36 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>12081.5</v>
+        <v>8122.17</v>
       </c>
       <c r="I20" t="n">
-        <v>10000</v>
+        <v>2295</v>
       </c>
       <c r="J20" t="n">
-        <v>1.20815</v>
+        <v>3.539071895424837</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1418,32 +1418,32 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10450.25</v>
+        <v>12081.5</v>
       </c>
       <c r="I21" t="n">
         <v>10000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.045025</v>
+        <v>1.20815</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1465,32 +1465,32 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13052.5</v>
+        <v>10450.25</v>
       </c>
       <c r="I22" t="n">
         <v>10000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.30525</v>
+        <v>1.045025</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1512,32 +1512,32 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12670.32</v>
+        <v>13052.5</v>
       </c>
       <c r="I23" t="n">
         <v>10000</v>
       </c>
       <c r="J23" t="n">
-        <v>1.267032</v>
+        <v>1.30525</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1559,32 +1559,32 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>16019.03</v>
+        <v>12670.32</v>
       </c>
       <c r="I24" t="n">
         <v>10000</v>
       </c>
       <c r="J24" t="n">
-        <v>1.601903</v>
+        <v>1.267032</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1606,32 +1606,32 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>14500</v>
+        <v>16019.03</v>
       </c>
       <c r="I25" t="n">
         <v>10000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.45</v>
+        <v>1.601903</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1653,42 +1653,42 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>13803.44</v>
+        <v>14500</v>
       </c>
       <c r="I26" t="n">
         <v>10000</v>
       </c>
       <c r="J26" t="n">
-        <v>1.380344</v>
+        <v>1.45</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1696,36 +1696,36 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>13803.44</v>
       </c>
       <c r="I27" t="n">
-        <v>5.4</v>
+        <v>10000</v>
       </c>
       <c r="J27" t="n">
-        <v>2.222222222222222</v>
+        <v>1.380344</v>
       </c>
       <c r="K27" t="n">
-        <v>194</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1743,36 +1743,36 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>16.84</v>
+        <v>12</v>
       </c>
       <c r="I28" t="n">
         <v>5.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.118518518518518</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="K28" t="n">
-        <v>763</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1790,36 +1790,36 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>14.12</v>
+        <v>16.84</v>
       </c>
       <c r="I29" t="n">
         <v>5.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.614814814814815</v>
+        <v>3.118518518518518</v>
       </c>
       <c r="K29" t="n">
-        <v>857</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1837,36 +1837,36 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>16</v>
+        <v>14.12</v>
       </c>
       <c r="I30" t="n">
         <v>5.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.962962962962963</v>
+        <v>2.614814814814815</v>
       </c>
       <c r="K30" t="n">
-        <v>28</v>
+        <v>857</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1888,22 +1888,22 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>15.14</v>
+        <v>16</v>
       </c>
       <c r="I31" t="n">
         <v>5.4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.803703703703704</v>
+        <v>2.962962962962963</v>
       </c>
       <c r="K31" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1931,26 +1931,26 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>13.58</v>
+        <v>15.14</v>
       </c>
       <c r="I32" t="n">
         <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.514814814814815</v>
+        <v>2.803703703703704</v>
       </c>
       <c r="K32" t="n">
-        <v>329</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1978,36 +1978,36 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>48</v>
+        <v>13.58</v>
       </c>
       <c r="I33" t="n">
-        <v>15</v>
+        <v>5.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>2.514814814814815</v>
       </c>
       <c r="K33" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2025,36 +2025,36 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>26.38</v>
+        <v>48</v>
       </c>
       <c r="I34" t="n">
         <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>1.758666666666667</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>751</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2072,36 +2072,36 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>36.18</v>
+        <v>26.38</v>
       </c>
       <c r="I35" t="n">
         <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>2.412</v>
+        <v>1.758666666666667</v>
       </c>
       <c r="K35" t="n">
-        <v>856</v>
+        <v>751</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2123,22 +2123,22 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>30</v>
+        <v>36.18</v>
       </c>
       <c r="I36" t="n">
         <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>2.412</v>
       </c>
       <c r="K36" t="n">
-        <v>232</v>
+        <v>856</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2166,36 +2166,36 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I37" t="n">
         <v>15</v>
       </c>
       <c r="J37" t="n">
-        <v>2.133333333333333</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>96</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2217,32 +2217,32 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>43.43</v>
+        <v>32</v>
       </c>
       <c r="I38" t="n">
         <v>15</v>
       </c>
       <c r="J38" t="n">
-        <v>2.895333333333333</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="K38" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2264,32 +2264,32 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>39.47</v>
+        <v>43.43</v>
       </c>
       <c r="I39" t="n">
         <v>15</v>
       </c>
       <c r="J39" t="n">
-        <v>2.631333333333333</v>
+        <v>2.895333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2307,36 +2307,36 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>41.49</v>
+        <v>39.47</v>
       </c>
       <c r="I40" t="n">
         <v>15</v>
       </c>
       <c r="J40" t="n">
-        <v>2.766</v>
+        <v>2.631333333333333</v>
       </c>
       <c r="K40" t="n">
-        <v>540</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2354,36 +2354,36 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>41.17</v>
+        <v>41.49</v>
       </c>
       <c r="I41" t="n">
         <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>2.744666666666667</v>
+        <v>2.766</v>
       </c>
       <c r="K41" t="n">
-        <v>139</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Europe+UA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2405,42 +2405,42 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>43.3</v>
+        <v>41.17</v>
       </c>
       <c r="I42" t="n">
         <v>15</v>
       </c>
       <c r="J42" t="n">
-        <v>2.886666666666666</v>
+        <v>2.744666666666667</v>
       </c>
       <c r="K42" t="n">
-        <v>674</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2448,36 +2448,36 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>61.01</v>
+        <v>43.3</v>
       </c>
       <c r="I43" t="n">
-        <v>62.25</v>
+        <v>15</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9800803212851406</v>
+        <v>2.886666666666666</v>
       </c>
       <c r="K43" t="n">
-        <v>225</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2499,32 +2499,32 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>260.25</v>
+        <v>61.01</v>
       </c>
       <c r="I44" t="n">
         <v>62.25</v>
       </c>
       <c r="J44" t="n">
-        <v>4.180722891566265</v>
+        <v>0.9800803212851406</v>
       </c>
       <c r="K44" t="n">
-        <v>765</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2546,32 +2546,32 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>84.09</v>
+        <v>260.25</v>
       </c>
       <c r="I45" t="n">
         <v>62.25</v>
       </c>
       <c r="J45" t="n">
-        <v>1.350843373493976</v>
+        <v>4.180722891566265</v>
       </c>
       <c r="K45" t="n">
-        <v>862</v>
+        <v>765</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2589,36 +2589,36 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>155.01</v>
+        <v>84.09</v>
       </c>
       <c r="I46" t="n">
         <v>62.25</v>
       </c>
       <c r="J46" t="n">
-        <v>2.490120481927711</v>
+        <v>1.350843373493976</v>
       </c>
       <c r="K46" t="n">
-        <v>49</v>
+        <v>862</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2636,36 +2636,36 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>211.34</v>
+        <v>155.01</v>
       </c>
       <c r="I47" t="n">
         <v>62.25</v>
       </c>
       <c r="J47" t="n">
-        <v>3.395020080321285</v>
+        <v>2.490120481927711</v>
       </c>
       <c r="K47" t="n">
-        <v>555</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2687,32 +2687,32 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>64.59</v>
+        <v>211.34</v>
       </c>
       <c r="I48" t="n">
         <v>62.25</v>
       </c>
       <c r="J48" t="n">
-        <v>1.037590361445783</v>
+        <v>3.395020080321285</v>
       </c>
       <c r="K48" t="n">
-        <v>154</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2730,19 +2730,66 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>64.59</v>
       </c>
       <c r="I49" t="n">
         <v>62.25</v>
       </c>
       <c r="J49" t="n">
+        <v>1.037590361445783</v>
+      </c>
+      <c r="K49" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>van de Ven et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Enthusiastic profile</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>kcal/cap/day</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="K49" t="n">
+      <c r="I50" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>371</v>
       </c>
     </row>

--- a/output/boxplot_dls_table.xlsx
+++ b/output/boxplot_dls_table.xlsx
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H33" t="n">
